--- a/StructureDefinition-bc-facility-health-service-area-list-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-area-list-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-11T20:09:37+00:00</t>
+    <t>2023-08-17T21:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-area-list-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-area-list-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T21:34:48+00:00</t>
+    <t>2023-08-21T18:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
